--- a/20180126_SmartCut/20181115_Meeting/first_run_v3.xlsx
+++ b/20180126_SmartCut/20181115_Meeting/first_run_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\LinearCut\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VbaProject\20180126_SmartCut\20181115_Meeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="beam_v_m" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="83">
   <si>
     <t>Story</t>
   </si>
@@ -303,33 +303,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>主筋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>長度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>腰筋</t>
     </r>
   </si>
   <si>
@@ -411,128 +385,22 @@
     </r>
   </si>
   <si>
+    <t>主筋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>上層</t>
+      <t>主筋</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第一排</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第二排</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第二排</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第一排</t>
-    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,10 +452,11 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -634,12 +503,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24940,7 +24811,7 @@
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:AL112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -37942,18 +37813,33 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>70</v>
@@ -37967,235 +37853,217 @@
       <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="2" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="N2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>60</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>80</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="5">
+      <c r="I4" s="3">
         <v>250</v>
       </c>
-      <c r="K4" s="5">
+      <c r="J4" s="3">
         <v>532.5</v>
       </c>
-      <c r="L4" s="5">
+      <c r="K4" s="3">
         <v>275</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="L4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="N4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="O4" s="3">
         <v>1160</v>
       </c>
-      <c r="R4" s="5">
+      <c r="P4" s="3">
         <v>45</v>
       </c>
-      <c r="S4" s="5">
+      <c r="Q4" s="3">
         <v>57.499999999999993</v>
       </c>
-      <c r="T4" s="5">
-        <f>Q4-R4-S4</f>
+      <c r="R4" s="3">
+        <f>O4-P4-Q4</f>
         <v>1057.5</v>
       </c>
-      <c r="U4" s="5">
-        <f>21*T4/3</f>
+      <c r="S4" s="3">
+        <f>21*R4/3</f>
         <v>7402.5</v>
       </c>
-      <c r="V4" s="5">
-        <f>9*J4+4*K4+9*L4</f>
+      <c r="T4" s="3">
+        <f>9*I4+4*J4+9*K4</f>
         <v>6855</v>
       </c>
-      <c r="W4" s="5">
-        <f>V4/U4</f>
+      <c r="U4" s="3">
+        <f>T4/S4</f>
         <v>0.92603850050658565</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <f>T4/3</f>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <f>R4/3</f>
         <v>352.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="5">
+      <c r="I7" s="3">
         <v>170</v>
       </c>
-      <c r="K7" s="5">
+      <c r="J7" s="3">
         <v>484</v>
       </c>
-      <c r="U7" s="5">
-        <f>13*T5</f>
+      <c r="S7" s="3">
+        <f>13*R5</f>
         <v>4582.5</v>
       </c>
-      <c r="V7" s="5">
-        <f>5*J7+4*(T4-J7)</f>
+      <c r="T7" s="3">
+        <f>5*I7+4*(R4-I7)</f>
         <v>4400</v>
       </c>
-      <c r="W7" s="5">
-        <f>V7/U7</f>
+      <c r="U7" s="3">
+        <f>T7/S7</f>
         <v>0.96017457719585375</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38206,18 +38074,28 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="B1" sqref="B1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>70</v>
@@ -38231,173 +38109,155 @@
       <c r="E1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="2" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>60</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>80</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="4">
+      <c r="L4" s="3">
         <v>1160</v>
       </c>
-      <c r="O4" s="4">
+      <c r="M4" s="3">
         <v>45</v>
       </c>
-      <c r="P4" s="4">
+      <c r="N4" s="3">
         <v>57.499999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
